--- a/data/trans_orig/P6714-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P6714-Clase-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4549</v>
+        <v>5494</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002982150755662514</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01512491081436297</v>
+        <v>0.01826750083853147</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4904</v>
+        <v>4269</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00181135173548646</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009902988328914472</v>
+        <v>0.008621527809890853</v>
       </c>
     </row>
     <row r="5">
@@ -808,16 +808,16 @@
         <v>925</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8289</v>
+        <v>8058</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.009990202799311537</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003075195913581219</v>
+        <v>0.003076815857586125</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02755739807730274</v>
+        <v>0.02679158132470441</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5962</v>
+        <v>4086</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.005081163176169859</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03066890168169631</v>
+        <v>0.02101733165139855</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -847,19 +847,19 @@
         <v>3993</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>991</v>
+        <v>1002</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10041</v>
+        <v>9697</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.008062902923587167</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002001739903841542</v>
+        <v>0.002023352380402972</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02027722018759805</v>
+        <v>0.01958321131970288</v>
       </c>
     </row>
     <row r="6">
@@ -876,19 +876,19 @@
         <v>22186</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13979</v>
+        <v>14671</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32067</v>
+        <v>31755</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07376098900152743</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04647564912352798</v>
+        <v>0.04877725755460219</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1066136167671149</v>
+        <v>0.1055765298857349</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -897,19 +897,19 @@
         <v>11132</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5231</v>
+        <v>5714</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19142</v>
+        <v>20543</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05725907005581581</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02690523465645316</v>
+        <v>0.02939002055112015</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09845961352074768</v>
+        <v>0.1056651704815623</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>32</v>
@@ -918,19 +918,19 @@
         <v>33318</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>22468</v>
+        <v>23433</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>45399</v>
+        <v>45663</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06728229891653485</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04537206196269929</v>
+        <v>0.04731996361609529</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09168026772348166</v>
+        <v>0.09221334834386474</v>
       </c>
     </row>
     <row r="7">
@@ -947,19 +947,19 @@
         <v>53754</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>42055</v>
+        <v>40375</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>69653</v>
+        <v>69152</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1787160881432784</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1398192379343731</v>
+        <v>0.1342345770744935</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2315757129555756</v>
+        <v>0.2299082414378704</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -968,19 +968,19 @@
         <v>34253</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23895</v>
+        <v>24234</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47631</v>
+        <v>45648</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1761872764921304</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1229092008629521</v>
+        <v>0.1246506267406634</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2449969345555396</v>
+        <v>0.2347989916712007</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>81</v>
@@ -989,19 +989,19 @@
         <v>88007</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>70491</v>
+        <v>72365</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>107399</v>
+        <v>107395</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1777232710639433</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1423497781979972</v>
+        <v>0.1461350325045577</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2168832291683966</v>
+        <v>0.2168756848767447</v>
       </c>
     </row>
     <row r="8">
@@ -1018,19 +1018,19 @@
         <v>220937</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>204232</v>
+        <v>204009</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>235232</v>
+        <v>235576</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7345505693002201</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6790096370879635</v>
+        <v>0.6782695890426919</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7820762540565181</v>
+        <v>0.7832190949023202</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>135</v>
@@ -1039,19 +1039,19 @@
         <v>148041</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>134105</v>
+        <v>135616</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>159391</v>
+        <v>160414</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7614724902758839</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6897897965277782</v>
+        <v>0.69756384006175</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8198513924832174</v>
+        <v>0.825115105052178</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>340</v>
@@ -1060,19 +1060,19 @@
         <v>368978</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>350487</v>
+        <v>347853</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>389685</v>
+        <v>388969</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7451201753604483</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7077785613963372</v>
+        <v>0.7024594729794729</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.786935266857164</v>
+        <v>0.7854899709588123</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5569</v>
+        <v>5265</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004067162346885898</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02162347180742535</v>
+        <v>0.02044573615401343</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1185,19 +1185,19 @@
         <v>2826</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7664</v>
+        <v>7564</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01702607306160955</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005361156277593921</v>
+        <v>0.005374860959127268</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04617727990923368</v>
+        <v>0.04557612348024265</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1206,19 +1206,19 @@
         <v>3873</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>990</v>
+        <v>957</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9747</v>
+        <v>8793</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009145756908553234</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002336524293815775</v>
+        <v>0.002259940176601731</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02301541420622457</v>
+        <v>0.0207615829866233</v>
       </c>
     </row>
     <row r="11">
@@ -1235,19 +1235,19 @@
         <v>4923</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1287</v>
+        <v>993</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13061</v>
+        <v>12983</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01911424036273798</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004995499250345471</v>
+        <v>0.003857636310302941</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05071480919598846</v>
+        <v>0.05041484567854079</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9896</v>
+        <v>9689</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0168499025411698</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05962402840783807</v>
+        <v>0.05837516240124292</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -1277,19 +1277,19 @@
         <v>7719</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2921</v>
+        <v>2791</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18064</v>
+        <v>15960</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01822684681558373</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.00689788263945811</v>
+        <v>0.006591323249347747</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04265327557590366</v>
+        <v>0.03768503620117449</v>
       </c>
     </row>
     <row r="12">
@@ -1306,19 +1306,19 @@
         <v>27383</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18304</v>
+        <v>18863</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>38189</v>
+        <v>38978</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1063271722309562</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07107328340262821</v>
+        <v>0.07324372015977904</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.148286531683509</v>
+        <v>0.1513513201529231</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>27</v>
@@ -1327,19 +1327,19 @@
         <v>30518</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>20866</v>
+        <v>21183</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>43773</v>
+        <v>42151</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1838741797632564</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1257186412265325</v>
+        <v>0.127629017904315</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.263739972004349</v>
+        <v>0.2539682122792903</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>54</v>
@@ -1348,19 +1348,19 @@
         <v>57900</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>44137</v>
+        <v>45055</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>75010</v>
+        <v>75084</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1367178292388523</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1042199038277555</v>
+        <v>0.106385838197348</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1771173377286594</v>
+        <v>0.177293446975273</v>
       </c>
     </row>
     <row r="13">
@@ -1377,19 +1377,19 @@
         <v>57221</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>44503</v>
+        <v>44789</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>73724</v>
+        <v>72218</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.222188691130339</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1728052338949531</v>
+        <v>0.1739152947739875</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2862726005008686</v>
+        <v>0.2804222616559199</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -1398,19 +1398,19 @@
         <v>46783</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34851</v>
+        <v>35025</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58922</v>
+        <v>59337</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2818784868206864</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2099844451287299</v>
+        <v>0.2110319777524075</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3550166720141842</v>
+        <v>0.3575186212152604</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>96</v>
@@ -1419,19 +1419,19 @@
         <v>104004</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>86613</v>
+        <v>85341</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>122818</v>
+        <v>122525</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2455811103277034</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2045158309962312</v>
+        <v>0.2015120952045416</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.290005046425026</v>
+        <v>0.289314087957961</v>
       </c>
     </row>
     <row r="14">
@@ -1448,19 +1448,19 @@
         <v>166959</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>150223</v>
+        <v>148412</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>182117</v>
+        <v>181357</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6483027339290809</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5833184187913731</v>
+        <v>0.5762842283761515</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7071615215606926</v>
+        <v>0.7042099106260601</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>75</v>
@@ -1469,19 +1469,19 @@
         <v>83047</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>70101</v>
+        <v>69834</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>97765</v>
+        <v>96236</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5003713578132778</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4223701726325225</v>
+        <v>0.4207619683075259</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5890539521826597</v>
+        <v>0.5798422730129362</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>222</v>
@@ -1490,19 +1490,19 @@
         <v>250005</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>227216</v>
+        <v>229865</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>272869</v>
+        <v>270871</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5903284567093073</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5365166256817395</v>
+        <v>0.5427711422767628</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6443158733125918</v>
+        <v>0.6395989557241702</v>
       </c>
     </row>
     <row r="15">
@@ -1594,19 +1594,19 @@
         <v>3186</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1016</v>
+        <v>1024</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8353</v>
+        <v>8645</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01135431670577185</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003621465953967807</v>
+        <v>0.00364885664833855</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02977049349481594</v>
+        <v>0.03081125019193239</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6012</v>
+        <v>4852</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009424844599848357</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05426455165359347</v>
+        <v>0.04379846196731407</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1636,19 +1636,19 @@
         <v>4230</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1044</v>
+        <v>1130</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10544</v>
+        <v>9630</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01080813358680501</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002667999645037546</v>
+        <v>0.002887888447392934</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02693940873607324</v>
+        <v>0.02460465260932932</v>
       </c>
     </row>
     <row r="17">
@@ -1665,19 +1665,19 @@
         <v>5880</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1965</v>
+        <v>1901</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13717</v>
+        <v>13646</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02095600350266606</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.007002279799524383</v>
+        <v>0.00677412104200596</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04888767843379762</v>
+        <v>0.04863447714403978</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1686,19 +1686,19 @@
         <v>4166</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1071</v>
+        <v>1062</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12740</v>
+        <v>11666</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03760208168666525</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.00967049705646352</v>
+        <v>0.009587023694023417</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1149963928314443</v>
+        <v>0.1052952704790501</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -1707,19 +1707,19 @@
         <v>10046</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4265</v>
+        <v>4013</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>20671</v>
+        <v>20872</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02566807312688638</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01089666666162841</v>
+        <v>0.01025335003868378</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05281509080634102</v>
+        <v>0.05332931457964597</v>
       </c>
     </row>
     <row r="18">
@@ -1736,19 +1736,19 @@
         <v>27414</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18043</v>
+        <v>18518</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>39381</v>
+        <v>38549</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09769999792170542</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0643054439810986</v>
+        <v>0.06599532882761475</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1403511858358522</v>
+        <v>0.13738597637668</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>17</v>
@@ -1757,19 +1757,19 @@
         <v>17641</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>10240</v>
+        <v>11160</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>26204</v>
+        <v>27395</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1592304815385867</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09242735229249048</v>
+        <v>0.1007334669088307</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2365194228713607</v>
+        <v>0.247267691487391</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>44</v>
@@ -1778,19 +1778,19 @@
         <v>45055</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>34040</v>
+        <v>33995</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>59351</v>
+        <v>59293</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1151176694963463</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08697438375253358</v>
+        <v>0.08686004533797165</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1516446436740158</v>
+        <v>0.1514965193466196</v>
       </c>
     </row>
     <row r="19">
@@ -1807,19 +1807,19 @@
         <v>65235</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>50834</v>
+        <v>51803</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>79401</v>
+        <v>79743</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2324924396158861</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.181166681942017</v>
+        <v>0.1846229024720075</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.282979258552543</v>
+        <v>0.2841961677753871</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -1828,19 +1828,19 @@
         <v>20431</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13177</v>
+        <v>13021</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29676</v>
+        <v>29161</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1844151398160621</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1189352077487303</v>
+        <v>0.1175316987862165</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2678584796808806</v>
+        <v>0.2632135347220028</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>86</v>
@@ -1849,19 +1849,19 @@
         <v>85666</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>70026</v>
+        <v>70514</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>102202</v>
+        <v>102931</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2188830127288343</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.178922355779038</v>
+        <v>0.1801689131845733</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2611342993185979</v>
+        <v>0.2629947142282998</v>
       </c>
     </row>
     <row r="20">
@@ -1878,19 +1878,19 @@
         <v>178875</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>162331</v>
+        <v>161805</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>194236</v>
+        <v>194701</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6374972422539706</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5785329509769194</v>
+        <v>0.5766601446053227</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6922404008251996</v>
+        <v>0.6938972826325429</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>64</v>
@@ -1899,19 +1899,19 @@
         <v>67507</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>56726</v>
+        <v>56169</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>77215</v>
+        <v>77363</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6093274523588376</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5120209173636234</v>
+        <v>0.5069892512175511</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6969582455612273</v>
+        <v>0.6982906364618221</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>237</v>
@@ -1920,19 +1920,19 @@
         <v>246382</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>227653</v>
+        <v>228226</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>265760</v>
+        <v>266042</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.629523111061128</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5816700355425969</v>
+        <v>0.5831317157029043</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6790360838278372</v>
+        <v>0.6797555521881152</v>
       </c>
     </row>
     <row r="21">
@@ -2024,19 +2024,19 @@
         <v>2727</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7305</v>
+        <v>7861</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006432721315293871</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001745407590261306</v>
+        <v>0.001729983010637893</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01723413732186102</v>
+        <v>0.01854499697244413</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -2045,19 +2045,19 @@
         <v>7208</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3044</v>
+        <v>3076</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14476</v>
+        <v>14171</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02419374512777361</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01021801480907095</v>
+        <v>0.01032461236760676</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04858907988544349</v>
+        <v>0.04756432279545646</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -2066,19 +2066,19 @@
         <v>9935</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5279</v>
+        <v>4996</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>18301</v>
+        <v>17540</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01376365240547602</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007313110167395767</v>
+        <v>0.006921545902083943</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02535399123113936</v>
+        <v>0.02430082898648867</v>
       </c>
     </row>
     <row r="23">
@@ -2095,19 +2095,19 @@
         <v>15109</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8103</v>
+        <v>8791</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>25771</v>
+        <v>26630</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03564579041968929</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01911611372191066</v>
+        <v>0.02073998090998135</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06079794854368897</v>
+        <v>0.06282485752338277</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -2116,19 +2116,19 @@
         <v>9620</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4447</v>
+        <v>4257</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17801</v>
+        <v>17862</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03229134261956503</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01492512624821083</v>
+        <v>0.01428905545906393</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0597511881200437</v>
+        <v>0.05995594353912703</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>21</v>
@@ -2137,19 +2137,19 @@
         <v>24730</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>15897</v>
+        <v>15081</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>37267</v>
+        <v>37120</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0342612291507018</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02202344634943043</v>
+        <v>0.02089285063081806</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05162994033852298</v>
+        <v>0.05142714922728874</v>
       </c>
     </row>
     <row r="24">
@@ -2166,19 +2166,19 @@
         <v>93324</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>75896</v>
+        <v>75600</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>113854</v>
+        <v>111030</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2201667440165603</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1790530041217885</v>
+        <v>0.1783546995347842</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2686014777877507</v>
+        <v>0.2619385510446186</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>49</v>
@@ -2187,19 +2187,19 @@
         <v>51371</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>39146</v>
+        <v>39739</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>66373</v>
+        <v>64779</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1724287800630331</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1313941272686963</v>
+        <v>0.1333840256094837</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2227841377101017</v>
+        <v>0.2174317991744051</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>133</v>
@@ -2208,19 +2208,19 @@
         <v>144695</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>123274</v>
+        <v>120903</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>166983</v>
+        <v>165932</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.200462715249761</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1707864472201908</v>
+        <v>0.1675010439820744</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2313407338584642</v>
+        <v>0.2298854189642245</v>
       </c>
     </row>
     <row r="25">
@@ -2237,19 +2237,19 @@
         <v>102506</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>85762</v>
+        <v>85547</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>122021</v>
+        <v>121347</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2418285939622719</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2023286243538385</v>
+        <v>0.2018197784027292</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2878686577030185</v>
+        <v>0.2862798573570988</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>94</v>
@@ -2258,19 +2258,19 @@
         <v>98804</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>83653</v>
+        <v>82871</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>116247</v>
+        <v>116749</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.331638729804706</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2807835505031272</v>
+        <v>0.2781585294438992</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3901860155763319</v>
+        <v>0.3918707118990488</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>194</v>
@@ -2279,19 +2279,19 @@
         <v>201310</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>180253</v>
+        <v>176810</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>226438</v>
+        <v>226395</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2788980739659058</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2497260847400524</v>
+        <v>0.2449551344701143</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3137109700428528</v>
+        <v>0.3136522856790131</v>
       </c>
     </row>
     <row r="26">
@@ -2308,19 +2308,19 @@
         <v>210212</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>189479</v>
+        <v>188864</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>232220</v>
+        <v>231064</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4959261502861846</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4470151796257613</v>
+        <v>0.4455642584512903</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.547846678733138</v>
+        <v>0.5451210427886705</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>122</v>
@@ -2329,19 +2329,19 @@
         <v>130923</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>113251</v>
+        <v>112797</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>148484</v>
+        <v>148567</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4394474023849223</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3801302166725308</v>
+        <v>0.3786046956293949</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4983902287471668</v>
+        <v>0.4986705342398269</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>321</v>
@@ -2350,19 +2350,19 @@
         <v>341135</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>315216</v>
+        <v>315915</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>368993</v>
+        <v>370608</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4726143292281554</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.43670641629167</v>
+        <v>0.4376736572070088</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.511209375186049</v>
+        <v>0.5134475462811739</v>
       </c>
     </row>
     <row r="27">
@@ -2454,19 +2454,19 @@
         <v>14692</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>8839</v>
+        <v>7881</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>24574</v>
+        <v>23351</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09669863317906278</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05817862666132396</v>
+        <v>0.05186861900555322</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.161740742120361</v>
+        <v>0.1536891094104093</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>6</v>
@@ -2475,19 +2475,19 @@
         <v>6660</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2386</v>
+        <v>2327</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14434</v>
+        <v>14009</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03854438574618017</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01381102042633048</v>
+        <v>0.01346698064024132</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08353274380622344</v>
+        <v>0.08107402760855115</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>20</v>
@@ -2496,19 +2496,19 @@
         <v>21352</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>13430</v>
+        <v>13445</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>32598</v>
+        <v>32451</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06575393379353667</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04135919431396384</v>
+        <v>0.04140305761129196</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1003853355164213</v>
+        <v>0.09993468537469276</v>
       </c>
     </row>
     <row r="29">
@@ -2525,19 +2525,19 @@
         <v>21525</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>13216</v>
+        <v>13251</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>31055</v>
+        <v>31250</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.141669813501601</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08698700652331748</v>
+        <v>0.08721679511335642</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2043951479121991</v>
+        <v>0.2056769632190148</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>19</v>
@@ -2546,19 +2546,19 @@
         <v>21664</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>13470</v>
+        <v>13020</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>32257</v>
+        <v>31454</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1253755952471663</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07795598632917704</v>
+        <v>0.07534990299733711</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.186681439320071</v>
+        <v>0.1820332887929723</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>38</v>
@@ -2567,19 +2567,19 @@
         <v>43189</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>31516</v>
+        <v>31660</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>57489</v>
+        <v>56831</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1329994290006655</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09705426462118061</v>
+        <v>0.09749789979177087</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1770379132980293</v>
+        <v>0.1750124000700029</v>
       </c>
     </row>
     <row r="30">
@@ -2596,19 +2596,19 @@
         <v>23884</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>15715</v>
+        <v>15611</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>34207</v>
+        <v>33239</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1571978332121464</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1034340893786503</v>
+        <v>0.1027490334408917</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2251405911659535</v>
+        <v>0.2187718968774698</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>40</v>
@@ -2617,19 +2617,19 @@
         <v>43962</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>33380</v>
+        <v>31887</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>57330</v>
+        <v>56324</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2544194021020712</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1931801746252507</v>
+        <v>0.1845419009477118</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3317852148854754</v>
+        <v>0.3259633434373316</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>63</v>
@@ -2638,19 +2638,19 @@
         <v>67845</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>53134</v>
+        <v>55146</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>83040</v>
+        <v>82892</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2089308081175499</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1636269521780866</v>
+        <v>0.1698219014863585</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2557237704806307</v>
+        <v>0.2552680553992061</v>
       </c>
     </row>
     <row r="31">
@@ -2667,19 +2667,19 @@
         <v>43738</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>32655</v>
+        <v>33010</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>56731</v>
+        <v>55405</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2878725677185319</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2149263742659947</v>
+        <v>0.2172665039648238</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3733930251341837</v>
+        <v>0.3646643716501429</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>36</v>
@@ -2688,19 +2688,19 @@
         <v>38005</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>27306</v>
+        <v>29511</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>48806</v>
+        <v>51044</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2199446558939937</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1580259287625488</v>
+        <v>0.1707902271693672</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2824580119309684</v>
+        <v>0.2954067518514119</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>77</v>
@@ -2709,19 +2709,19 @@
         <v>81743</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>66404</v>
+        <v>66059</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>98216</v>
+        <v>99259</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2517271629701884</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.204492313099544</v>
+        <v>0.203429957251356</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3024568164934539</v>
+        <v>0.3056684429094405</v>
       </c>
     </row>
     <row r="32">
@@ -2738,19 +2738,19 @@
         <v>48097</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>37625</v>
+        <v>37397</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>61083</v>
+        <v>60146</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.316561152388658</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.247640938414094</v>
+        <v>0.2461375501764446</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4020309047693861</v>
+        <v>0.3958687578686292</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>56</v>
@@ -2759,19 +2759,19 @@
         <v>62502</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>49144</v>
+        <v>49447</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>76366</v>
+        <v>75440</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3617159610105886</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.284410871864324</v>
+        <v>0.286162842055208</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4419526647498822</v>
+        <v>0.4365955312025935</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>102</v>
@@ -2780,19 +2780,19 @@
         <v>110598</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>94215</v>
+        <v>92829</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>128796</v>
+        <v>127582</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3405886661180596</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2901346029724259</v>
+        <v>0.285866849657585</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3966284214010756</v>
+        <v>0.3928914511901803</v>
       </c>
     </row>
     <row r="33">
@@ -2884,19 +2884,19 @@
         <v>22549</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>14437</v>
+        <v>14609</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>33356</v>
+        <v>33455</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01593885789886484</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01020476070016156</v>
+        <v>0.01032673467864048</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02357773381296571</v>
+        <v>0.02364799393773465</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>17</v>
@@ -2905,19 +2905,19 @@
         <v>17738</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>10453</v>
+        <v>10646</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>28042</v>
+        <v>27531</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01883243032633461</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0110978353259833</v>
+        <v>0.01130232371761368</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02977155984223001</v>
+        <v>0.02922970876236843</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>39</v>
@@ -2926,19 +2926,19 @@
         <v>40287</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>28724</v>
+        <v>28876</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>54156</v>
+        <v>55205</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01709536673690172</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01218884265112926</v>
+        <v>0.01225314473419472</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02298039690086981</v>
+        <v>0.02342583912913921</v>
       </c>
     </row>
     <row r="35">
@@ -2955,19 +2955,19 @@
         <v>50441</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>36760</v>
+        <v>37817</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>67104</v>
+        <v>67375</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.03565491431665365</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02598428351266607</v>
+        <v>0.02673106617455568</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04743302653528583</v>
+        <v>0.04762437295598326</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>33</v>
@@ -2976,19 +2976,19 @@
         <v>39235</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>27202</v>
+        <v>27522</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>54892</v>
+        <v>55911</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04165516191714037</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02888011222594203</v>
+        <v>0.02922000358977165</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0582788927053504</v>
+        <v>0.05936058999987642</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>77</v>
@@ -2997,19 +2997,19 @@
         <v>89676</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>71057</v>
+        <v>72113</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>110076</v>
+        <v>111685</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.03805310532597305</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03015224307843346</v>
+        <v>0.03060038854818478</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04670960428854208</v>
+        <v>0.04739218008848182</v>
       </c>
     </row>
     <row r="36">
@@ -3026,19 +3026,19 @@
         <v>194189</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>166802</v>
+        <v>169034</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>221337</v>
+        <v>222695</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1372642307106214</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1179054226805557</v>
+        <v>0.1194833014056484</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1564538331515727</v>
+        <v>0.1574136019897097</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>143</v>
@@ -3047,19 +3047,19 @@
         <v>154624</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>132818</v>
+        <v>132048</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>179466</v>
+        <v>176737</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1641625298763872</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1410122969930223</v>
+        <v>0.1401941857572657</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1905377149953539</v>
+        <v>0.1876404760810586</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>326</v>
@@ -3068,19 +3068,19 @@
         <v>348813</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>312304</v>
+        <v>315229</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>383811</v>
+        <v>388122</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1480149969323504</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1325226749769643</v>
+        <v>0.1337641439283445</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1628661605829821</v>
+        <v>0.1646953959577329</v>
       </c>
     </row>
     <row r="37">
@@ -3097,19 +3097,19 @@
         <v>322453</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>291087</v>
+        <v>293454</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>356602</v>
+        <v>358678</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2279284122685862</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2057567678231056</v>
+        <v>0.2074300497351417</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2520669793596686</v>
+        <v>0.2535345904554395</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>224</v>
@@ -3118,19 +3118,19 @@
         <v>238277</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>213896</v>
+        <v>210878</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>269869</v>
+        <v>266163</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2529766244366204</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2270913852493702</v>
+        <v>0.2238877284566514</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2865174409991484</v>
+        <v>0.2825825768461335</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>534</v>
@@ -3139,19 +3139,19 @@
         <v>560730</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>524074</v>
+        <v>518485</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>605829</v>
+        <v>602612</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2379397320041304</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2223852137559897</v>
+        <v>0.2200136687302759</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2570769898735503</v>
+        <v>0.2557120213911562</v>
       </c>
     </row>
     <row r="38">
@@ -3168,19 +3168,19 @@
         <v>825079</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>782268</v>
+        <v>785798</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>863387</v>
+        <v>865450</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5832135848052739</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5529518634546648</v>
+        <v>0.5554474234813469</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6102916417832598</v>
+        <v>0.6117500433210259</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>452</v>
@@ -3189,19 +3189,19 @@
         <v>492020</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>461061</v>
+        <v>459204</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>528169</v>
+        <v>523102</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.5223732534435175</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4895049174634137</v>
+        <v>0.4875332313694191</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5607523976309641</v>
+        <v>0.5553726402327046</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1222</v>
@@ -3210,19 +3210,19 @@
         <v>1317099</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1268468</v>
+        <v>1264447</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1363115</v>
+        <v>1365089</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.5588967990006445</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.5382606269652208</v>
+        <v>0.5365543272318758</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.578423383669543</v>
+        <v>0.579260865908553</v>
       </c>
     </row>
     <row r="39">
@@ -3558,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7674</v>
+        <v>7493</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004885035655960655</v>
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02779954267074123</v>
+        <v>0.02714298407014287</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -3579,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5104</v>
+        <v>5100</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004797354505299828</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0238305808054636</v>
+        <v>0.02381145754444619</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8838</v>
+        <v>8740</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004846728797919675</v>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01802839416551501</v>
+        <v>0.01782849875301842</v>
       </c>
     </row>
     <row r="5">
@@ -3626,19 +3626,19 @@
         <v>12438</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6951</v>
+        <v>6445</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22641</v>
+        <v>21995</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04505567018539113</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02518018088853223</v>
+        <v>0.02334826458368013</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08201606670936824</v>
+        <v>0.07967537225737843</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -3647,19 +3647,19 @@
         <v>3952</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9315</v>
+        <v>10066</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01845427517661295</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.004854707796564712</v>
+        <v>0.004831222386588989</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04349188242029692</v>
+        <v>0.04700036439028402</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -3668,19 +3668,19 @@
         <v>16390</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9749</v>
+        <v>9756</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25806</v>
+        <v>26767</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03343383522299296</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0198868707547056</v>
+        <v>0.0199019734544656</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05264172639355926</v>
+        <v>0.05460047054809064</v>
       </c>
     </row>
     <row r="6">
@@ -3697,19 +3697,19 @@
         <v>22841</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14121</v>
+        <v>13845</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>33630</v>
+        <v>34656</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08274108367856038</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05115171913548877</v>
+        <v>0.05015445998483365</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1218239008997324</v>
+        <v>0.125541768339284</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -3718,19 +3718,19 @@
         <v>17342</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10422</v>
+        <v>10394</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>26771</v>
+        <v>27466</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08097284870888442</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0486631326493004</v>
+        <v>0.04853092953178956</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1249944206026958</v>
+        <v>0.1282410201071182</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>36</v>
@@ -3739,19 +3739,19 @@
         <v>40183</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>28426</v>
+        <v>28169</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>55027</v>
+        <v>55152</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08196856272672556</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.057984842565283</v>
+        <v>0.05746123673853934</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1122484347926659</v>
+        <v>0.1125027146665858</v>
       </c>
     </row>
     <row r="7">
@@ -3768,19 +3768,19 @@
         <v>49313</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36700</v>
+        <v>38399</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63648</v>
+        <v>65215</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.178635516090822</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1329465805225434</v>
+        <v>0.1390987274598586</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2305629346113423</v>
+        <v>0.2362404541884766</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -3789,19 +3789,19 @@
         <v>33860</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24354</v>
+        <v>24141</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46641</v>
+        <v>45339</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1580959010135854</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.113711098266302</v>
+        <v>0.1127165252832349</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2177719578252013</v>
+        <v>0.2116930786594228</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>81</v>
@@ -3810,19 +3810,19 @@
         <v>83173</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>68012</v>
+        <v>67498</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>101380</v>
+        <v>100867</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1696620011101205</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1387363435595078</v>
+        <v>0.1376872428537942</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2068012776245728</v>
+        <v>0.2057564957771856</v>
       </c>
     </row>
     <row r="8">
@@ -3839,19 +3839,19 @@
         <v>190113</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>172551</v>
+        <v>173467</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>205001</v>
+        <v>205633</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6886826943892658</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6250660944372364</v>
+        <v>0.6283832144858315</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.742614177216961</v>
+        <v>0.7449025463152634</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>153</v>
@@ -3860,19 +3860,19 @@
         <v>157992</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>143923</v>
+        <v>143344</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>170008</v>
+        <v>169985</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7376796205956174</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.671992581738808</v>
+        <v>0.6692870873819956</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7937861387600501</v>
+        <v>0.7936784890668858</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>327</v>
@@ -3881,19 +3881,19 @@
         <v>348105</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>326242</v>
+        <v>324258</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>367929</v>
+        <v>366988</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7100888721422413</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6654913528987652</v>
+        <v>0.6614454719882036</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7505286252336657</v>
+        <v>0.7486087906670088</v>
       </c>
     </row>
     <row r="9">
@@ -3985,19 +3985,19 @@
         <v>4810</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1927</v>
+        <v>1814</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10968</v>
+        <v>11071</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01977561097420995</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007923030075943286</v>
+        <v>0.007458477337953195</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04509228571527931</v>
+        <v>0.04551585758020768</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -4006,19 +4006,19 @@
         <v>6117</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2260</v>
+        <v>2199</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14414</v>
+        <v>14013</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03233672937621501</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01194807333639914</v>
+        <v>0.0116234087623791</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07619573978499199</v>
+        <v>0.07407426245516945</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -4027,19 +4027,19 @@
         <v>10927</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5012</v>
+        <v>5557</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19314</v>
+        <v>20412</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0252709672355567</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01159092222996943</v>
+        <v>0.01285090792404247</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04466459177855401</v>
+        <v>0.0472052546996353</v>
       </c>
     </row>
     <row r="11">
@@ -4056,19 +4056,19 @@
         <v>10324</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5439</v>
+        <v>5174</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18675</v>
+        <v>18265</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04244374852569934</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02236172182319668</v>
+        <v>0.02127157565191401</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07677534975969014</v>
+        <v>0.07509029664958689</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>21</v>
@@ -4077,19 +4077,19 @@
         <v>21208</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>13668</v>
+        <v>13612</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>30916</v>
+        <v>30856</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.112107189105489</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07225166359521103</v>
+        <v>0.07195391557143634</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1634225913738144</v>
+        <v>0.1631074806937791</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>31</v>
@@ -4098,19 +4098,19 @@
         <v>31532</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>22241</v>
+        <v>21697</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>45171</v>
+        <v>44049</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07292076594765091</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05143412125553978</v>
+        <v>0.05017599783012739</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1044624855898174</v>
+        <v>0.1018668500700917</v>
       </c>
     </row>
     <row r="12">
@@ -4127,19 +4127,19 @@
         <v>45143</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>33713</v>
+        <v>32601</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>61647</v>
+        <v>59311</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1855922094626151</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1385999616056642</v>
+        <v>0.1340303085220099</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2534429314774949</v>
+        <v>0.2438404742072437</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>33</v>
@@ -4148,19 +4148,19 @@
         <v>31636</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>22446</v>
+        <v>22378</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>42773</v>
+        <v>42983</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1672327441484648</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1186507581219965</v>
+        <v>0.118290613142715</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2261029060593314</v>
+        <v>0.2272138217579685</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>72</v>
@@ -4169,19 +4169,19 @@
         <v>76779</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>62122</v>
+        <v>60633</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>93472</v>
+        <v>94580</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1775601378396783</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1436628998686407</v>
+        <v>0.1402196819989748</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2161647260856349</v>
+        <v>0.2187268709308178</v>
       </c>
     </row>
     <row r="13">
@@ -4198,19 +4198,19 @@
         <v>68101</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>53265</v>
+        <v>55531</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>83409</v>
+        <v>83831</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2799780841785834</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2189823610428268</v>
+        <v>0.2282989077165386</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3429133128723947</v>
+        <v>0.3446494031178539</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>54</v>
@@ -4219,19 +4219,19 @@
         <v>56468</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43481</v>
+        <v>44179</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69476</v>
+        <v>69507</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2984940724637974</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2298424528226118</v>
+        <v>0.2335321002115896</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3672573493565771</v>
+        <v>0.3674207641909923</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>117</v>
@@ -4240,19 +4240,19 @@
         <v>124569</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>106926</v>
+        <v>105486</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>145441</v>
+        <v>145031</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2880786329435669</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2472777341636009</v>
+        <v>0.2439476557820084</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3363464751374641</v>
+        <v>0.3353986454227602</v>
       </c>
     </row>
     <row r="14">
@@ -4269,19 +4269,19 @@
         <v>114859</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>98353</v>
+        <v>97815</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>131888</v>
+        <v>131538</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4722103468588923</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4043523035109453</v>
+        <v>0.402138179610825</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5422199888172157</v>
+        <v>0.5407807747339702</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>69</v>
@@ -4290,19 +4290,19 @@
         <v>73746</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>60759</v>
+        <v>60595</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>88043</v>
+        <v>87008</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3898292649060338</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3211758068902957</v>
+        <v>0.3203084211591282</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4654051797515671</v>
+        <v>0.4599299645507357</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>175</v>
@@ -4311,19 +4311,19 @@
         <v>188605</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>167104</v>
+        <v>165974</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>210361</v>
+        <v>208688</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4361694960335472</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.386446268765782</v>
+        <v>0.3838326544577353</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4864815745121373</v>
+        <v>0.4826128580006042</v>
       </c>
     </row>
     <row r="15">
@@ -4415,19 +4415,19 @@
         <v>6201</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2242</v>
+        <v>2154</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14972</v>
+        <v>14587</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02866638367449099</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01036236642037834</v>
+        <v>0.009957902364367563</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06921164057162089</v>
+        <v>0.0674317676878487</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -4449,19 +4449,19 @@
         <v>6201</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2121</v>
+        <v>2147</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13726</v>
+        <v>13568</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02203380264887441</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007537830472241075</v>
+        <v>0.00763017896191933</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04877147944296216</v>
+        <v>0.04820712466140761</v>
       </c>
     </row>
     <row r="17">
@@ -4478,19 +4478,19 @@
         <v>13797</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7478</v>
+        <v>7472</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23302</v>
+        <v>24824</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06377771626269008</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03457037282185756</v>
+        <v>0.03453857019006882</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1077173653317069</v>
+        <v>0.1147534232747247</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -4502,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4529</v>
+        <v>4554</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0134028625256171</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06954958377395618</v>
+        <v>0.06993612474351445</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -4520,19 +4520,19 @@
         <v>14669</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7705</v>
+        <v>8170</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24264</v>
+        <v>24371</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05212241635257146</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02737563835563988</v>
+        <v>0.02903025351136413</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08621367151687191</v>
+        <v>0.08659313984565183</v>
       </c>
     </row>
     <row r="18">
@@ -4549,19 +4549,19 @@
         <v>32272</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>22108</v>
+        <v>21834</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>43866</v>
+        <v>43536</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1491823130834072</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1021977625022766</v>
+        <v>0.1009308214851627</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2027759573708679</v>
+        <v>0.2012540468379113</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -4570,19 +4570,19 @@
         <v>2807</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7625</v>
+        <v>6750</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0431069202142734</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01347362666716184</v>
+        <v>0.0133930752834051</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1170891511684992</v>
+        <v>0.1036590723758644</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>33</v>
@@ -4591,19 +4591,19 @@
         <v>35079</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>25119</v>
+        <v>24275</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>46252</v>
+        <v>47758</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1246395020327512</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08925249059114732</v>
+        <v>0.08625016763607478</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1643387818779951</v>
+        <v>0.1696884560073107</v>
       </c>
     </row>
     <row r="19">
@@ -4620,19 +4620,19 @@
         <v>65126</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>51608</v>
+        <v>52748</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>81087</v>
+        <v>79522</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3010585255498514</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2385660035320223</v>
+        <v>0.2438384425055402</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.374840762332617</v>
+        <v>0.3676065982029484</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -4641,19 +4641,19 @@
         <v>26544</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19096</v>
+        <v>18858</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34898</v>
+        <v>35106</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4076276566057018</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2932527192387618</v>
+        <v>0.2895919853023206</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5359191386525076</v>
+        <v>0.5391085366674909</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>89</v>
@@ -4662,19 +4662,19 @@
         <v>91670</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>76151</v>
+        <v>75593</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>107626</v>
+        <v>107980</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3257155734908673</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2705733690825546</v>
+        <v>0.2685890244750422</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3824062351364486</v>
+        <v>0.3836640888974063</v>
       </c>
     </row>
     <row r="20">
@@ -4691,19 +4691,19 @@
         <v>98929</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>83349</v>
+        <v>84720</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>112450</v>
+        <v>113867</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4573150614295604</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.385296132857479</v>
+        <v>0.391633436037317</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.519820664933581</v>
+        <v>0.5263704876345401</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>33</v>
@@ -4712,19 +4712,19 @@
         <v>34894</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>26732</v>
+        <v>26410</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>42939</v>
+        <v>42945</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5358625606544077</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4105125198872085</v>
+        <v>0.4055783608000075</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6593976031642788</v>
+        <v>0.6594874214558297</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>127</v>
@@ -4733,19 +4733,19 @@
         <v>133823</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>116205</v>
+        <v>114995</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>151737</v>
+        <v>151124</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4754887054749356</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.412888448789054</v>
+        <v>0.4085907545856144</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5391394401593361</v>
+        <v>0.5369624369361875</v>
       </c>
     </row>
     <row r="21">
@@ -4837,19 +4837,19 @@
         <v>18700</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11031</v>
+        <v>10906</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28687</v>
+        <v>28989</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03834364604974176</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02261871582553947</v>
+        <v>0.02236114996911387</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05882178711491509</v>
+        <v>0.05944041093689693</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -4858,19 +4858,19 @@
         <v>6879</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2769</v>
+        <v>2860</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14932</v>
+        <v>14447</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01884862978391178</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007586426198399302</v>
+        <v>0.007838212477836951</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04091679264248056</v>
+        <v>0.03958609305689023</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>23</v>
@@ -4879,19 +4879,19 @@
         <v>25579</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16936</v>
+        <v>16281</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>37273</v>
+        <v>37268</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02999953472669144</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01986270941798322</v>
+        <v>0.0190942358913826</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04371486233220758</v>
+        <v>0.04370870233365047</v>
       </c>
     </row>
     <row r="23">
@@ -4908,19 +4908,19 @@
         <v>18761</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11953</v>
+        <v>11166</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>28618</v>
+        <v>28348</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03846843091880329</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02450965319287572</v>
+        <v>0.02289499553075391</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05867992501935934</v>
+        <v>0.05812675744913896</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>28</v>
@@ -4929,19 +4929,19 @@
         <v>27527</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>19119</v>
+        <v>18557</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>38463</v>
+        <v>38870</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07542742619839322</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05238925726183769</v>
+        <v>0.05084915834535644</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1053960732146822</v>
+        <v>0.1065107785328441</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>46</v>
@@ -4950,19 +4950,19 @@
         <v>46288</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>35016</v>
+        <v>34684</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>59573</v>
+        <v>60322</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.054287344162878</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0410674221026686</v>
+        <v>0.04067794056036539</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06986914406505039</v>
+        <v>0.0707466572255601</v>
       </c>
     </row>
     <row r="24">
@@ -4979,19 +4979,19 @@
         <v>117219</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>99226</v>
+        <v>99181</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>137724</v>
+        <v>136961</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.24035013608648</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2034568443595368</v>
+        <v>0.2033649412535933</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2823952666727413</v>
+        <v>0.2808296663902801</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>70</v>
@@ -5000,19 +5000,19 @@
         <v>67589</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>53093</v>
+        <v>53840</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>81824</v>
+        <v>83087</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1852044798732421</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1454827828083705</v>
+        <v>0.1475314806373118</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2242103047167114</v>
+        <v>0.2276730750327362</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>179</v>
@@ -5021,19 +5021,19 @@
         <v>184808</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>162433</v>
+        <v>160746</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>211919</v>
+        <v>209171</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2167471040011755</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1905056734688664</v>
+        <v>0.1885267964358532</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2485440108783271</v>
+        <v>0.2453213174827861</v>
       </c>
     </row>
     <row r="25">
@@ -5050,19 +5050,19 @@
         <v>155054</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>135539</v>
+        <v>134833</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>178500</v>
+        <v>177110</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3179286575472925</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2779133113730165</v>
+        <v>0.276466706586694</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.36600268871481</v>
+        <v>0.3631518124772889</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>127</v>
@@ -5071,19 +5071,19 @@
         <v>127674</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>109695</v>
+        <v>110166</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>146766</v>
+        <v>145994</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3498483831644105</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3005807045988002</v>
+        <v>0.3018732307707035</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4021622356552711</v>
+        <v>0.4000480976465462</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>276</v>
@@ -5092,19 +5092,19 @@
         <v>282728</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>253806</v>
+        <v>257094</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>309337</v>
+        <v>311185</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3315907002108467</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2976702274381512</v>
+        <v>0.3015260337382437</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3627987487868287</v>
+        <v>0.3649654309382898</v>
       </c>
     </row>
     <row r="26">
@@ -5121,19 +5121,19 @@
         <v>177967</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>158113</v>
+        <v>157173</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>199380</v>
+        <v>200321</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3649091293976824</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3242013583586422</v>
+        <v>0.3222723118578985</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4088154461027617</v>
+        <v>0.4107461446728236</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>129</v>
@@ -5142,19 +5142,19 @@
         <v>135273</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>116833</v>
+        <v>116883</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>154574</v>
+        <v>152776</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3706710809800424</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.320142060532644</v>
+        <v>0.3202788808305617</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4235588863385505</v>
+        <v>0.4186320213226259</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>299</v>
@@ -5163,19 +5163,19 @@
         <v>313240</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>287218</v>
+        <v>287667</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>346263</v>
+        <v>345645</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3673753168984083</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3368568983316321</v>
+        <v>0.3373825967344411</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.406105862060014</v>
+        <v>0.4053814047157351</v>
       </c>
     </row>
     <row r="27">
@@ -5267,19 +5267,19 @@
         <v>7578</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3200</v>
+        <v>3191</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>14752</v>
+        <v>14318</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03926225231915462</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0165796569938405</v>
+        <v>0.01653129876339488</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07642842211333541</v>
+        <v>0.07417902162161469</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>13</v>
@@ -5288,19 +5288,19 @@
         <v>13481</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>7254</v>
+        <v>7228</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>22401</v>
+        <v>22462</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06821803859986794</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03670621544410178</v>
+        <v>0.03657787872862035</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1133534809392369</v>
+        <v>0.1136649925208517</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>20</v>
@@ -5309,19 +5309,19 @@
         <v>21060</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>12889</v>
+        <v>13166</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>31704</v>
+        <v>31985</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05391052987266087</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03299435816651764</v>
+        <v>0.03370303638921282</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08116038338263308</v>
+        <v>0.08187941704880265</v>
       </c>
     </row>
     <row r="29">
@@ -5338,19 +5338,19 @@
         <v>19614</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12182</v>
+        <v>12176</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>30544</v>
+        <v>30585</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1016173932888977</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06311034608173789</v>
+        <v>0.06307983616166804</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1582420914068061</v>
+        <v>0.1584528574528621</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>20</v>
@@ -5359,19 +5359,19 @@
         <v>20537</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>13236</v>
+        <v>13070</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>31306</v>
+        <v>30612</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1039206869565093</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06697780179097884</v>
+        <v>0.06613967430459511</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1584154753056519</v>
+        <v>0.1549034968934782</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>37</v>
@@ -5380,19 +5380,19 @@
         <v>40151</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>28211</v>
+        <v>29736</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>54151</v>
+        <v>53988</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1027825933840814</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07221664620027142</v>
+        <v>0.07611999069893365</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1386207472930944</v>
+        <v>0.1382052086227105</v>
       </c>
     </row>
     <row r="30">
@@ -5409,19 +5409,19 @@
         <v>67690</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>55013</v>
+        <v>54760</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>83139</v>
+        <v>81719</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.350685601340657</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2850086930319604</v>
+        <v>0.2836981920769774</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4307226889696882</v>
+        <v>0.4233671570777961</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>64</v>
@@ -5430,19 +5430,19 @@
         <v>65345</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>52527</v>
+        <v>53117</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>79303</v>
+        <v>78988</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.33065989056607</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.265798193157441</v>
+        <v>0.2687857918448203</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4012903362070586</v>
+        <v>0.3997003804820866</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>126</v>
@@ -5451,19 +5451,19 @@
         <v>133034</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>114573</v>
+        <v>114696</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>152028</v>
+        <v>151895</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.340554908746487</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2932965448916316</v>
+        <v>0.2936115372269776</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3891760477684027</v>
+        <v>0.3888352830769166</v>
       </c>
     </row>
     <row r="31">
@@ -5480,19 +5480,19 @@
         <v>39291</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>28634</v>
+        <v>29036</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>51754</v>
+        <v>54049</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2035561630906254</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1483449155629986</v>
+        <v>0.1504288744960448</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2681238878458234</v>
+        <v>0.2800158629925954</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>46</v>
@@ -5501,19 +5501,19 @@
         <v>47485</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>35825</v>
+        <v>35070</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>60468</v>
+        <v>60101</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2402840589420409</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1812835637322283</v>
+        <v>0.1774646411122159</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3059814607276926</v>
+        <v>0.3041253184869663</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>83</v>
@@ -5522,19 +5522,19 @@
         <v>86775</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>70533</v>
+        <v>72906</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>104276</v>
+        <v>105834</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2221362288216034</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1805579279420889</v>
+        <v>0.1866317430558361</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.266936929994711</v>
+        <v>0.2709238544192802</v>
       </c>
     </row>
     <row r="32">
@@ -5551,19 +5551,19 @@
         <v>58848</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>45207</v>
+        <v>46026</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>71985</v>
+        <v>72224</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3048785899606654</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2342085327695945</v>
+        <v>0.2384494612500207</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3729388646719383</v>
+        <v>0.3741770582502384</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>49</v>
@@ -5572,19 +5572,19 @@
         <v>50772</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>38020</v>
+        <v>39063</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>63818</v>
+        <v>62659</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2569173249355119</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1923897207694655</v>
+        <v>0.1976665947368748</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3229356207101521</v>
+        <v>0.3170680255116305</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>102</v>
@@ -5593,19 +5593,19 @@
         <v>109620</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>93297</v>
+        <v>92434</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>128010</v>
+        <v>128966</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2806157391751673</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2388303924103067</v>
+        <v>0.2366220754040927</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3276920388186179</v>
+        <v>0.3301407825947643</v>
       </c>
     </row>
     <row r="33">
@@ -5697,19 +5697,19 @@
         <v>38639</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>28050</v>
+        <v>27744</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>53584</v>
+        <v>51646</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02728067793005616</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0198046722463283</v>
+        <v>0.01958848319370792</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03783290848465828</v>
+        <v>0.03646430079783511</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>25</v>
@@ -5718,19 +5718,19 @@
         <v>27505</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>17452</v>
+        <v>18661</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>40395</v>
+        <v>39675</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02667687448321709</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01692718788320053</v>
+        <v>0.01809943882217347</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03917924257899989</v>
+        <v>0.03848067540210872</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>60</v>
@@ -5739,19 +5739,19 @@
         <v>66143</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>51035</v>
+        <v>51280</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>84418</v>
+        <v>83797</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02702630698893172</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02085285490795722</v>
+        <v>0.02095301125360602</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03449331895605025</v>
+        <v>0.03423978041377164</v>
       </c>
     </row>
     <row r="35">
@@ -5768,19 +5768,19 @@
         <v>74934</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>59638</v>
+        <v>58512</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>94243</v>
+        <v>91900</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05290674511910444</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0421068623145618</v>
+        <v>0.04131190619408094</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.06653982304783235</v>
+        <v>0.06488567071713656</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>74</v>
@@ -5789,19 +5789,19 @@
         <v>74097</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>58997</v>
+        <v>59928</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>90150</v>
+        <v>91367</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.07186655498234314</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.05722136423941145</v>
+        <v>0.05812457332619426</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.08743702561770339</v>
+        <v>0.08861704118345602</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>142</v>
@@ -5810,19 +5810,19 @@
         <v>149030</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>126067</v>
+        <v>125340</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>174573</v>
+        <v>174075</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06089415344494303</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05151134165892038</v>
+        <v>0.05121434762589273</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.0713308217229202</v>
+        <v>0.07112735496209117</v>
       </c>
     </row>
     <row r="36">
@@ -5839,19 +5839,19 @@
         <v>285164</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>253793</v>
+        <v>254405</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>316949</v>
+        <v>318876</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2013394289105138</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.179189775840611</v>
+        <v>0.1796216339531924</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2237810136191038</v>
+        <v>0.2251410240717411</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>187</v>
@@ -5860,19 +5860,19 @@
         <v>184719</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>160238</v>
+        <v>162255</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>210515</v>
+        <v>210479</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1791601048138404</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1554155980056399</v>
+        <v>0.1573722293147268</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.204179264704547</v>
+        <v>0.2041443112915649</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>446</v>
@@ -5881,19 +5881,19 @@
         <v>469884</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>427471</v>
+        <v>432325</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>508210</v>
+        <v>513455</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1919957002956647</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1746657657455034</v>
+        <v>0.1766492723919941</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2076561391007967</v>
+        <v>0.2097992582123815</v>
       </c>
     </row>
     <row r="37">
@@ -5910,19 +5910,19 @@
         <v>376885</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>346236</v>
+        <v>343237</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>410233</v>
+        <v>408295</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2660984739555231</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2444590599343785</v>
+        <v>0.2423415879325866</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2896438960654345</v>
+        <v>0.2882755099729801</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>288</v>
@@ -5931,19 +5931,19 @@
         <v>292031</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>261568</v>
+        <v>265978</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>319766</v>
+        <v>322262</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2832421097384085</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.253696209005986</v>
+        <v>0.2579732058368647</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3101422405820501</v>
+        <v>0.3125631150735781</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>646</v>
@@ -5952,19 +5952,19 @@
         <v>668916</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>622546</v>
+        <v>617315</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>711905</v>
+        <v>714245</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2733207625847389</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2543740968949815</v>
+        <v>0.2522367510360992</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2908864530352091</v>
+        <v>0.2918425989987526</v>
       </c>
     </row>
     <row r="38">
@@ -5981,19 +5981,19 @@
         <v>640715</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>601168</v>
+        <v>600639</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>677189</v>
+        <v>680614</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.4523746740848025</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4244529928994129</v>
+        <v>0.424078928907247</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.478126983082896</v>
+        <v>0.4805453311754296</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>433</v>
@@ -6002,19 +6002,19 @@
         <v>452678</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>417225</v>
+        <v>421282</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>484728</v>
+        <v>481899</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4390543559821908</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4046687673632691</v>
+        <v>0.4086037160510665</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4701397497079002</v>
+        <v>0.4673959422679902</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1030</v>
@@ -6023,19 +6023,19 @@
         <v>1093392</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1046832</v>
+        <v>1043902</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1148493</v>
+        <v>1145401</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4467630766857216</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4277384638160523</v>
+        <v>0.4265413548933684</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4692772030656879</v>
+        <v>0.4680140087544354</v>
       </c>
     </row>
     <row r="39">
